--- a/biology/Botanique/Otatea_acuminata/Otatea_acuminata.xlsx
+++ b/biology/Botanique/Otatea_acuminata/Otatea_acuminata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Otatea acuminata est une espèce de plantes monocotylédones de la famille des Poaceae, sous-famille des Bambusoideae, originaire du Mexique.
 Ce sont des bambous à rhizomes courts, pachymorphes, aux tiges (chaumes) dressées pouvant atteindre 10 mètres de long.
@@ -513,20 +525,90 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cette espèce était initialement nommée Arthrostylidium longifolium. En 1973, Floyd McClure l'a renommée Yushania aztecorum. En 1980, Soderstrom l'a d'abord appelée Otatea aztecorum puis Otatea acuminata. Finalement, Guzman, Anaya &amp; Santana, de l'université de Guadalajara (Mexique), décrivirent deux sous-espèces en 1984 :
 Otatea acuminata acuminata
-Otatea acuminata aztecorum
-Synonymes
-Selon Catalogue of Life                                   (30 mars 2018)[2] :
+Otatea acuminata aztecorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Otatea_acuminata</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Otatea_acuminata</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (30 mars 2018) :
 Arundinaria acuminata Munro
 Otatea acuminata subsp. aztecorum (McClure &amp; E.W.Sm.) R.Guzmán, M.C.Anaya C. &amp; Santana Mich.
 Otatea aztecorum (McClure &amp; E.W.Sm.) C.E.Calderón ex Soderstr.
 Yushania acuminata (Munro) McClure
-Yushania aztecorum McClure &amp; E.W.Sm.
-Liste des sous-espèces
-Selon Tropicos                                           (30 mars 2018)[3] (Attention liste brute contenant possiblement des synonymes) :
+Yushania aztecorum McClure &amp; E.W.Sm.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Otatea_acuminata</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Otatea_acuminata</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des sous-espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (30 mars 2018) (Attention liste brute contenant possiblement des synonymes) :
 Otatea acuminata subsp. acuminata
 Otatea acuminata subsp. aztecorum (McClure &amp; E.W. Sm.) R. Guzmán, Anaya &amp; Santana</t>
         </is>
